--- a/Resources/Random_user_api_Stress_test.xlsx
+++ b/Resources/Random_user_api_Stress_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA Project\Jmeter\Random-User-API-Performance-Test\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Msi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2874EADB-0D06-49C7-9EBD-8E2B08727769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CBB934-042C-4059-A2EF-AB26A92B860F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8EC29F21-B167-4F69-B35E-72FC42EF85C5}"/>
   </bookViews>
@@ -615,7 +615,7 @@
   <dimension ref="G9:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,7 +890,7 @@
         <v>43000</v>
       </c>
       <c r="L22" s="9">
-        <v>1.11E-2</v>
+        <v>1.03E-2</v>
       </c>
       <c r="M22" s="5">
         <v>45.7</v>
